--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02759233333333333</v>
+        <v>0.005583666666666666</v>
       </c>
       <c r="H2">
-        <v>0.082777</v>
+        <v>0.016751</v>
       </c>
       <c r="I2">
-        <v>0.003002532875897786</v>
+        <v>0.0005349789730684028</v>
       </c>
       <c r="J2">
-        <v>0.003002532875897787</v>
+        <v>0.0005349789730684027</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1278803333333333</v>
+        <v>0.06449866666666666</v>
       </c>
       <c r="N2">
-        <v>0.383641</v>
+        <v>0.193496</v>
       </c>
       <c r="O2">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623641</v>
       </c>
       <c r="P2">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623642</v>
       </c>
       <c r="Q2">
-        <v>0.003528516784111111</v>
+        <v>0.0003601390551111111</v>
       </c>
       <c r="R2">
-        <v>0.031756651057</v>
+        <v>0.003241251496</v>
       </c>
       <c r="S2">
-        <v>2.99489592680404E-05</v>
+        <v>2.421223876921162E-06</v>
       </c>
       <c r="T2">
-        <v>2.994895926804041E-05</v>
+        <v>2.421223876921162E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02759233333333333</v>
+        <v>0.005583666666666666</v>
       </c>
       <c r="H3">
-        <v>0.082777</v>
+        <v>0.016751</v>
       </c>
       <c r="I3">
-        <v>0.003002532875897786</v>
+        <v>0.0005349789730684028</v>
       </c>
       <c r="J3">
-        <v>0.003002532875897787</v>
+        <v>0.0005349789730684027</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>31.859554</v>
       </c>
       <c r="O3">
-        <v>0.8283400145723324</v>
+        <v>0.745188142173877</v>
       </c>
       <c r="P3">
-        <v>0.8283400145723324</v>
+        <v>0.7451881421738772</v>
       </c>
       <c r="Q3">
-        <v>0.2930264779397778</v>
+        <v>0.05929770989488888</v>
       </c>
       <c r="R3">
-        <v>2.637238301458</v>
+        <v>0.5336793890539999</v>
       </c>
       <c r="S3">
-        <v>0.002487118126175079</v>
+        <v>0.0003986599870429317</v>
       </c>
       <c r="T3">
-        <v>0.00248711812617508</v>
+        <v>0.0003986599870429317</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02759233333333333</v>
+        <v>0.005583666666666666</v>
       </c>
       <c r="H4">
-        <v>0.082777</v>
+        <v>0.016751</v>
       </c>
       <c r="I4">
-        <v>0.003002532875897786</v>
+        <v>0.0005349789730684028</v>
       </c>
       <c r="J4">
-        <v>0.003002532875897787</v>
+        <v>0.0005349789730684027</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.072911</v>
+        <v>3.566885000000001</v>
       </c>
       <c r="N4">
-        <v>6.218733</v>
+        <v>10.700655</v>
       </c>
       <c r="O4">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="P4">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="Q4">
-        <v>0.05719645128233333</v>
+        <v>0.01991629687833334</v>
       </c>
       <c r="R4">
-        <v>0.5147680615410001</v>
+        <v>0.179246671905</v>
       </c>
       <c r="S4">
-        <v>0.0004854657904546664</v>
+        <v>0.0001338977621485499</v>
       </c>
       <c r="T4">
-        <v>0.0004854657904546665</v>
+        <v>0.0001338977621485499</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>23.90622</v>
       </c>
       <c r="I5">
-        <v>0.8671395615744129</v>
+        <v>0.7634962107066631</v>
       </c>
       <c r="J5">
-        <v>0.867139561574413</v>
+        <v>0.7634962107066631</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1278803333333333</v>
+        <v>0.06449866666666666</v>
       </c>
       <c r="N5">
-        <v>0.383641</v>
+        <v>0.193496</v>
       </c>
       <c r="O5">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623641</v>
       </c>
       <c r="P5">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623642</v>
       </c>
       <c r="Q5">
-        <v>1.019045127446667</v>
+        <v>0.5139731050133334</v>
       </c>
       <c r="R5">
-        <v>9.171406147020001</v>
+        <v>4.62575794512</v>
       </c>
       <c r="S5">
-        <v>0.00864933990157668</v>
+        <v>0.003455454042799249</v>
       </c>
       <c r="T5">
-        <v>0.00864933990157668</v>
+        <v>0.00345545404279925</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>23.90622</v>
       </c>
       <c r="I6">
-        <v>0.8671395615744129</v>
+        <v>0.7634962107066631</v>
       </c>
       <c r="J6">
-        <v>0.867139561574413</v>
+        <v>0.7634962107066631</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>31.859554</v>
       </c>
       <c r="O6">
-        <v>0.8283400145723324</v>
+        <v>0.745188142173877</v>
       </c>
       <c r="P6">
-        <v>0.8283400145723324</v>
+        <v>0.7451881421738772</v>
       </c>
       <c r="Q6">
         <v>84.62683411398667</v>
@@ -818,10 +818,10 @@
         <v>761.6415070258801</v>
       </c>
       <c r="S6">
-        <v>0.7182863970707951</v>
+        <v>0.5689483228132932</v>
       </c>
       <c r="T6">
-        <v>0.7182863970707952</v>
+        <v>0.5689483228132933</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>23.90622</v>
       </c>
       <c r="I7">
-        <v>0.8671395615744129</v>
+        <v>0.7634962107066631</v>
       </c>
       <c r="J7">
-        <v>0.867139561574413</v>
+        <v>0.7634962107066631</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.072911</v>
+        <v>3.566885000000001</v>
       </c>
       <c r="N7">
-        <v>6.218733</v>
+        <v>10.700655</v>
       </c>
       <c r="O7">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="P7">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="Q7">
-        <v>16.51848880214</v>
+        <v>28.42357917490001</v>
       </c>
       <c r="R7">
-        <v>148.66639921926</v>
+        <v>255.8122125741</v>
       </c>
       <c r="S7">
-        <v>0.1402038246020411</v>
+        <v>0.1910924338505706</v>
       </c>
       <c r="T7">
-        <v>0.1402038246020411</v>
+        <v>0.1910924338505706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.193353333333333</v>
+        <v>2.462846666666667</v>
       </c>
       <c r="H8">
-        <v>3.58006</v>
+        <v>7.388540000000001</v>
       </c>
       <c r="I8">
-        <v>0.1298579055496893</v>
+        <v>0.2359688103202685</v>
       </c>
       <c r="J8">
-        <v>0.1298579055496893</v>
+        <v>0.2359688103202685</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1278803333333333</v>
+        <v>0.06449866666666666</v>
       </c>
       <c r="N8">
-        <v>0.383641</v>
+        <v>0.193496</v>
       </c>
       <c r="O8">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623641</v>
       </c>
       <c r="P8">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623642</v>
       </c>
       <c r="Q8">
-        <v>0.1526064220511111</v>
+        <v>0.1588503262044444</v>
       </c>
       <c r="R8">
-        <v>1.37345779846</v>
+        <v>1.42965293584</v>
       </c>
       <c r="S8">
-        <v>0.001295276116761187</v>
+        <v>0.001067954716947471</v>
       </c>
       <c r="T8">
-        <v>0.001295276116761187</v>
+        <v>0.001067954716947471</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.193353333333333</v>
+        <v>2.462846666666667</v>
       </c>
       <c r="H9">
-        <v>3.58006</v>
+        <v>7.388540000000001</v>
       </c>
       <c r="I9">
-        <v>0.1298579055496893</v>
+        <v>0.2359688103202685</v>
       </c>
       <c r="J9">
-        <v>0.1298579055496893</v>
+        <v>0.2359688103202685</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>31.859554</v>
       </c>
       <c r="O9">
-        <v>0.8283400145723324</v>
+        <v>0.745188142173877</v>
       </c>
       <c r="P9">
-        <v>0.8283400145723324</v>
+        <v>0.7451881421738772</v>
       </c>
       <c r="Q9">
-        <v>12.67323498813778</v>
+        <v>26.15506545679556</v>
       </c>
       <c r="R9">
-        <v>114.05911489324</v>
+        <v>235.39558911116</v>
       </c>
       <c r="S9">
-        <v>0.1075664993753622</v>
+        <v>0.1758411593735409</v>
       </c>
       <c r="T9">
-        <v>0.1075664993753622</v>
+        <v>0.1758411593735409</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.193353333333333</v>
+        <v>2.462846666666667</v>
       </c>
       <c r="H10">
-        <v>3.58006</v>
+        <v>7.388540000000001</v>
       </c>
       <c r="I10">
-        <v>0.1298579055496893</v>
+        <v>0.2359688103202685</v>
       </c>
       <c r="J10">
-        <v>0.1298579055496893</v>
+        <v>0.2359688103202685</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.072911</v>
+        <v>3.566885000000001</v>
       </c>
       <c r="N10">
-        <v>6.218733</v>
+        <v>10.700655</v>
       </c>
       <c r="O10">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="P10">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="Q10">
-        <v>2.473715251553334</v>
+        <v>8.784690832633336</v>
       </c>
       <c r="R10">
-        <v>22.26343726398001</v>
+        <v>79.06221749370002</v>
       </c>
       <c r="S10">
-        <v>0.02099613005756591</v>
+        <v>0.05905969622978015</v>
       </c>
       <c r="T10">
-        <v>0.02099613005756591</v>
+        <v>0.05905969622978016</v>
       </c>
     </row>
   </sheetData>
